--- a/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-05-09.xlsx
+++ b/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-05-09.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Minutes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues From Last Minutes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="1">Minutes!#REF!</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
   <si>
     <t>FYP Project Meeting Minutes</t>
   </si>
@@ -127,6 +127,99 @@
   </si>
   <si>
     <t>Roger Koh</t>
+  </si>
+  <si>
+    <t>Scope too big</t>
+  </si>
+  <si>
+    <t>During the presentation Swarna mentioned that the scope of this project is too big for the team</t>
+  </si>
+  <si>
+    <t>It was mentioned by Swarna during the presentation on 09 Apr 11</t>
+  </si>
+  <si>
+    <t>Data Migration / Domain Expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dave asked about Data migration as well as if we have any any Domain expert for this project </t>
+  </si>
+  <si>
+    <t>It was asked by Dave during the presentation on 09 Apr 11</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>During the presentation Dave asked Tim about Analysis</t>
+  </si>
+  <si>
+    <t>Tim replied that it is done during the Requirement Specifications</t>
+  </si>
+  <si>
+    <t>Gantt Chart</t>
+  </si>
+  <si>
+    <t>Dave asked to show Gantt chart</t>
+  </si>
+  <si>
+    <t>Tim will be creating it</t>
+  </si>
+  <si>
+    <t>Use case modelling</t>
+  </si>
+  <si>
+    <t>Dave asked if we have started use case modelling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim </t>
+  </si>
+  <si>
+    <t>Tim replied that we are behind schedule</t>
+  </si>
+  <si>
+    <t>Use case modelling survey / programming</t>
+  </si>
+  <si>
+    <t>Dave asked Tim when can Use case modelling survey and  programming be finished</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Dave asked Tim if customer asked him to finish programming early.</t>
+  </si>
+  <si>
+    <t>Tim told Dave that we have realised that we are behind schedule</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Dave asked Tim when will integration be done</t>
+  </si>
+  <si>
+    <t>Tim replied that it will be done during system testing.</t>
+  </si>
+  <si>
+    <t>Data migration</t>
+  </si>
+  <si>
+    <t>Dave asked if everyone is going to do Data migration</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Allocation of tasks</t>
+  </si>
+  <si>
+    <t>Dave suggested that 4 of us do use case modelling while the other 2 do UI prototyping</t>
+  </si>
+  <si>
+    <t>De scoping</t>
+  </si>
+  <si>
+    <t>Dave and Howard suggested to de scope the project</t>
   </si>
 </sst>
 </file>
@@ -616,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -865,12 +958,261 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>